--- a/OPC_Sensor/Models With Decompositions/Models with TruncateSVD/GRU/GRU_tanh_mse.xlsx
+++ b/OPC_Sensor/Models With Decompositions/Models with TruncateSVD/GRU/GRU_tanh_mse.xlsx
@@ -490,34 +490,34 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.001052975771017373</v>
+        <v>2251108864</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0008761995122767985</v>
+        <v>30172.47265625</v>
       </c>
       <c r="D2" t="n">
-        <v>0.130422979593277</v>
+        <v>0.1482051312923431</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1419454962015152</v>
+        <v>0.1869299560785294</v>
       </c>
       <c r="F2" t="n">
-        <v>3.113094635409652e-06</v>
+        <v>2251204352</v>
       </c>
       <c r="G2" t="n">
-        <v>2.685236779598199e-07</v>
+        <v>30172.513671875</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0003017944982275367</v>
+        <v>95.74885559082031</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001472266158089042</v>
+        <v>72.18769836425781</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0005354087916202843</v>
+        <v>195.1403045654297</v>
       </c>
       <c r="K2" t="n">
-        <v>2.685236779598199e-07</v>
+        <v>30172.513671875</v>
       </c>
     </row>
     <row r="3">
@@ -525,34 +525,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.0007317073759622872</v>
+        <v>2251113728</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0005981416907161474</v>
+        <v>30172.349609375</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1404044777154922</v>
+        <v>0.1533868014812469</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1420685052871704</v>
+        <v>0.1860585957765579</v>
       </c>
       <c r="F3" t="n">
-        <v>2.070200025627855e-06</v>
+        <v>2251208960</v>
       </c>
       <c r="G3" t="n">
-        <v>2.508901388864615e-07</v>
+        <v>30172.390625</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0001487822883063927</v>
+        <v>95.73739624023438</v>
       </c>
       <c r="I3" t="n">
-        <v>0.000145949685247615</v>
+        <v>72.17979431152344</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0002533359220251441</v>
+        <v>195.1375579833984</v>
       </c>
       <c r="K3" t="n">
-        <v>2.508901388864615e-07</v>
+        <v>30172.390625</v>
       </c>
     </row>
     <row r="4">
@@ -560,34 +560,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0004864951479248703</v>
+        <v>2251107840</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0003840071440208703</v>
+        <v>30172.21484375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1406729370355606</v>
+        <v>0.1542388945817947</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1420224457979202</v>
+        <v>0.1871592700481415</v>
       </c>
       <c r="F4" t="n">
-        <v>1.433948227713699e-06</v>
+        <v>2251203328</v>
       </c>
       <c r="G4" t="n">
-        <v>2.402021550551581e-07</v>
+        <v>30172.2578125</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0001475229073548689</v>
+        <v>95.72914886474609</v>
       </c>
       <c r="I4" t="n">
-        <v>0.000145851809065789</v>
+        <v>72.17230987548828</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0002507749304641038</v>
+        <v>195.1369476318359</v>
       </c>
       <c r="K4" t="n">
-        <v>2.402021550551581e-07</v>
+        <v>30172.2578125</v>
       </c>
     </row>
     <row r="5">
@@ -595,34 +595,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0003059903683606535</v>
+        <v>2251119104</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002319948689546436</v>
+        <v>30172.005859375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.140681117773056</v>
+        <v>0.1565316617488861</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1420224457979202</v>
+        <v>0.1879823207855225</v>
       </c>
       <c r="F5" t="n">
-        <v>1.261894567505806e-06</v>
+        <v>2251214592</v>
       </c>
       <c r="G5" t="n">
-        <v>2.324725443259013e-07</v>
+        <v>30172.046875</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0001472055591875687</v>
+        <v>95.72093963623047</v>
       </c>
       <c r="I5" t="n">
-        <v>0.0001457648759242147</v>
+        <v>72.16526031494141</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0002503500145394355</v>
+        <v>195.1361541748047</v>
       </c>
       <c r="K5" t="n">
-        <v>2.324725443259013e-07</v>
+        <v>30172.046875</v>
       </c>
     </row>
     <row r="6">
@@ -630,34 +630,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.0001732459786580876</v>
+        <v>2251111168</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001215747979586013</v>
+        <v>30171.794921875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.1406468003988266</v>
+        <v>0.1579506099224091</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1420238018035889</v>
+        <v>0.1883399933576584</v>
       </c>
       <c r="F6" t="n">
-        <v>1.050968421623111e-06</v>
+        <v>2251206656</v>
       </c>
       <c r="G6" t="n">
-        <v>2.2830512591554e-07</v>
+        <v>30171.8359375</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0001468603441026062</v>
+        <v>95.71298980712891</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0001456848258385435</v>
+        <v>72.159423828125</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0002498331887181848</v>
+        <v>195.1338653564453</v>
       </c>
       <c r="K6" t="n">
-        <v>2.2830512591554e-07</v>
+        <v>30171.8359375</v>
       </c>
     </row>
     <row r="7">
@@ -665,34 +665,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.532528590876609e-05</v>
+        <v>2251102976</v>
       </c>
       <c r="C7" t="n">
-        <v>5.415666237240657e-05</v>
+        <v>30171.7578125</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1406373977661133</v>
+        <v>0.1577010154724121</v>
       </c>
       <c r="E7" t="n">
-        <v>0.1420237123966217</v>
+        <v>0.1880850046873093</v>
       </c>
       <c r="F7" t="n">
-        <v>9.154333042715734e-07</v>
+        <v>2251198464</v>
       </c>
       <c r="G7" t="n">
-        <v>2.267948673306819e-07</v>
+        <v>30171.798828125</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0001467205729568377</v>
+        <v>95.70699310302734</v>
       </c>
       <c r="I7" t="n">
-        <v>0.000145628655445762</v>
+        <v>72.1546630859375</v>
       </c>
       <c r="J7" t="n">
-        <v>0.000249535747570917</v>
+        <v>195.1329650878906</v>
       </c>
       <c r="K7" t="n">
-        <v>2.267948673306819e-07</v>
+        <v>30171.798828125</v>
       </c>
     </row>
     <row r="8">
@@ -700,34 +700,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.377959365025163e-05</v>
+        <v>2251107584</v>
       </c>
       <c r="C8" t="n">
-        <v>1.751528725435492e-05</v>
+        <v>30171.615234375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1406407505273819</v>
+        <v>0.1565680503845215</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.1877787113189697</v>
       </c>
       <c r="F8" t="n">
-        <v>8.217477329708345e-07</v>
+        <v>2251203072</v>
       </c>
       <c r="G8" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30171.654296875</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0001464978704461828</v>
+        <v>95.70085144042969</v>
       </c>
       <c r="I8" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.15029144287109</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0002492053026799113</v>
+        <v>195.1316986083984</v>
       </c>
       <c r="K8" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30171.654296875</v>
       </c>
     </row>
     <row r="9">
@@ -735,34 +735,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.035848799801897e-05</v>
+        <v>2251099648</v>
       </c>
       <c r="C9" t="n">
-        <v>4.255977728462312e-06</v>
+        <v>30171.322265625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1406390070915222</v>
+        <v>0.1550220251083374</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.1876782178878784</v>
       </c>
       <c r="F9" t="n">
-        <v>7.877641223785758e-07</v>
+        <v>2251195136</v>
       </c>
       <c r="G9" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30171.361328125</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0001463848020648584</v>
+        <v>95.69603729248047</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.14536285400391</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0002490588231012225</v>
+        <v>195.1313629150391</v>
       </c>
       <c r="K9" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30171.361328125</v>
       </c>
     </row>
     <row r="10">
@@ -770,34 +770,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.687848791538272e-06</v>
+        <v>2251108096</v>
       </c>
       <c r="C10" t="n">
-        <v>8.646245532872854e-07</v>
+        <v>30170.9765625</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1406416296958923</v>
+        <v>0.2198507934808731</v>
       </c>
       <c r="E10" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2513867020606995</v>
       </c>
       <c r="F10" t="n">
-        <v>7.556628816018929e-07</v>
+        <v>2251203584</v>
       </c>
       <c r="G10" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30171.015625</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0001462719374103472</v>
+        <v>95.68855285644531</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.13414001464844</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0002488959871698171</v>
+        <v>195.1315155029297</v>
       </c>
       <c r="K10" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30171.015625</v>
       </c>
     </row>
     <row r="11">
@@ -805,34 +805,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.035324316944752e-06</v>
+        <v>2251110912</v>
       </c>
       <c r="C11" t="n">
-        <v>2.526430762372911e-07</v>
+        <v>30171.19140625</v>
       </c>
       <c r="D11" t="n">
-        <v>0.1406361311674118</v>
+        <v>0.2329860329627991</v>
       </c>
       <c r="E11" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2532943487167358</v>
       </c>
       <c r="F11" t="n">
-        <v>7.484011916858435e-07</v>
+        <v>2251206400</v>
       </c>
       <c r="G11" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30171.23046875</v>
       </c>
       <c r="H11" t="n">
-        <v>0.000146190810482949</v>
+        <v>95.68389129638672</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.13333892822266</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0002487617894075811</v>
+        <v>195.1303863525391</v>
       </c>
       <c r="K11" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30171.23046875</v>
       </c>
     </row>
     <row r="12">
@@ -840,34 +840,34 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7.514724984503118e-07</v>
+        <v>2251095808</v>
       </c>
       <c r="C12" t="n">
-        <v>2.292292009542507e-07</v>
+        <v>30170.9375</v>
       </c>
       <c r="D12" t="n">
-        <v>0.1406386494636536</v>
+        <v>0.2350692003965378</v>
       </c>
       <c r="E12" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.25888991355896</v>
       </c>
       <c r="F12" t="n">
-        <v>7.484112529709819e-07</v>
+        <v>2251191040</v>
       </c>
       <c r="G12" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.978515625</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0001461927749915048</v>
+        <v>95.68037414550781</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.12975311279297</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0002487654273863882</v>
+        <v>195.1288757324219</v>
       </c>
       <c r="K12" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.978515625</v>
       </c>
     </row>
     <row r="13">
@@ -875,34 +875,34 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7.507896953029558e-07</v>
+        <v>2251123200</v>
       </c>
       <c r="C13" t="n">
-        <v>2.290890819267588e-07</v>
+        <v>30170.72265625</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1406367570161819</v>
+        <v>0.2376863062381744</v>
       </c>
       <c r="E13" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2629022598266602</v>
       </c>
       <c r="F13" t="n">
-        <v>7.484117645617516e-07</v>
+        <v>2251218432</v>
       </c>
       <c r="G13" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.763671875</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0001461926440242678</v>
+        <v>95.67767333984375</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.12625885009766</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0002487658057361841</v>
+        <v>195.1288452148438</v>
       </c>
       <c r="K13" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.763671875</v>
       </c>
     </row>
     <row r="14">
@@ -910,34 +910,34 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7.508037924708333e-07</v>
+        <v>2251120640</v>
       </c>
       <c r="C14" t="n">
-        <v>2.289864227122962e-07</v>
+        <v>30170.58984375</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1406405568122864</v>
+        <v>0.2394676506519318</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.263832151889801</v>
       </c>
       <c r="F14" t="n">
-        <v>7.484123898393591e-07</v>
+        <v>2251215872</v>
       </c>
       <c r="G14" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.630859375</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0001461929932702333</v>
+        <v>95.67519378662109</v>
       </c>
       <c r="I14" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.12390899658203</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0002487660385668278</v>
+        <v>195.1288909912109</v>
       </c>
       <c r="K14" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.630859375</v>
       </c>
     </row>
     <row r="15">
@@ -945,34 +945,34 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7.508130011046887e-07</v>
+        <v>2251092480</v>
       </c>
       <c r="C15" t="n">
-        <v>2.292537004677797e-07</v>
+        <v>30170.4140625</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1406411826610565</v>
+        <v>0.2410701662302017</v>
       </c>
       <c r="E15" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2697214484214783</v>
       </c>
       <c r="F15" t="n">
-        <v>7.48413640394574e-07</v>
+        <v>2251187968</v>
       </c>
       <c r="G15" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.455078125</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0001461938809370622</v>
+        <v>95.67263793945312</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.12163543701172</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0002487672318238765</v>
+        <v>195.1272430419922</v>
       </c>
       <c r="K15" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.455078125</v>
       </c>
     </row>
     <row r="16">
@@ -980,34 +980,34 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7.5081493378093e-07</v>
+        <v>2251107328</v>
       </c>
       <c r="C16" t="n">
-        <v>2.29150046493487e-07</v>
+        <v>30170.294921875</v>
       </c>
       <c r="D16" t="n">
-        <v>0.1406392753124237</v>
+        <v>0.2421212643384933</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2720929086208344</v>
       </c>
       <c r="F16" t="n">
-        <v>7.484105708499555e-07</v>
+        <v>2251202816</v>
       </c>
       <c r="G16" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.3359375</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0001461927022319287</v>
+        <v>95.67061614990234</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.11955261230469</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0002487660967744887</v>
+        <v>195.1271820068359</v>
       </c>
       <c r="K16" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.3359375</v>
       </c>
     </row>
     <row r="17">
@@ -1015,34 +1015,34 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7.508163548664015e-07</v>
+        <v>2251109632</v>
       </c>
       <c r="C17" t="n">
-        <v>2.291486254080155e-07</v>
+        <v>30170.310546875</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1406418085098267</v>
+        <v>0.2430889010429382</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.272356241941452</v>
       </c>
       <c r="F17" t="n">
-        <v>7.484136972379929e-07</v>
+        <v>2251204864</v>
       </c>
       <c r="G17" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.3515625</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0001461939828004688</v>
+        <v>95.66851806640625</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.11830902099609</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0002487678139004856</v>
+        <v>195.1257781982422</v>
       </c>
       <c r="K17" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.3515625</v>
       </c>
     </row>
     <row r="18">
@@ -1050,34 +1050,34 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7.508158432756318e-07</v>
+        <v>2251113984</v>
       </c>
       <c r="C18" t="n">
-        <v>2.290031204665866e-07</v>
+        <v>30170.296875</v>
       </c>
       <c r="D18" t="n">
-        <v>0.140639916062355</v>
+        <v>0.2431289553642273</v>
       </c>
       <c r="E18" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2767517268657684</v>
       </c>
       <c r="F18" t="n">
-        <v>7.484123329959402e-07</v>
+        <v>2251209472</v>
       </c>
       <c r="G18" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.337890625</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0001461925712646917</v>
+        <v>95.66750335693359</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.11709594726562</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0002487660385668278</v>
+        <v>195.1264495849609</v>
       </c>
       <c r="K18" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.337890625</v>
       </c>
     </row>
     <row r="19">
@@ -1085,34 +1085,34 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7.508148200940923e-07</v>
+        <v>2251101952</v>
       </c>
       <c r="C19" t="n">
-        <v>2.292277940796339e-07</v>
+        <v>30170.3125</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1406405568122864</v>
+        <v>0.2440304756164551</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2785125374794006</v>
       </c>
       <c r="F19" t="n">
-        <v>7.484034085791791e-07</v>
+        <v>2251197440</v>
       </c>
       <c r="G19" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.353515625</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0001461906358599663</v>
+        <v>95.66607666015625</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.11640930175781</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0002487619349267334</v>
+        <v>195.1255645751953</v>
       </c>
       <c r="K19" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.353515625</v>
       </c>
     </row>
     <row r="20">
@@ -1120,34 +1120,34 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7.508157864322129e-07</v>
+        <v>2251116544</v>
       </c>
       <c r="C20" t="n">
-        <v>2.29232028914339e-07</v>
+        <v>30170.267578125</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1406411826610565</v>
+        <v>0.2431794106960297</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2760266959667206</v>
       </c>
       <c r="F20" t="n">
-        <v>7.484108550670499e-07</v>
+        <v>2251212032</v>
       </c>
       <c r="G20" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.310546875</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0001461925858166069</v>
+        <v>95.66468048095703</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.11508178710938</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0002487656020093709</v>
+        <v>195.1254119873047</v>
       </c>
       <c r="K20" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.310546875</v>
       </c>
     </row>
     <row r="21">
@@ -1155,34 +1155,34 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7.508167527703336e-07</v>
+        <v>2251120640</v>
       </c>
       <c r="C21" t="n">
-        <v>2.291238985208111e-07</v>
+        <v>30170.3203125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1406392753124237</v>
+        <v>0.2426591962575912</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.274089127779007</v>
       </c>
       <c r="F21" t="n">
-        <v>7.484092634513217e-07</v>
+        <v>2251215872</v>
       </c>
       <c r="G21" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.361328125</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0001461919164285064</v>
+        <v>95.66319274902344</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.11463165283203</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0002487645542714745</v>
+        <v>195.1251068115234</v>
       </c>
       <c r="K21" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.361328125</v>
       </c>
     </row>
     <row r="22">
@@ -1190,34 +1190,34 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7.508157864322129e-07</v>
+        <v>2251113984</v>
       </c>
       <c r="C22" t="n">
-        <v>2.289858116455434e-07</v>
+        <v>30170.232421875</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1406380087137222</v>
+        <v>0.2425691783428192</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2734736800193787</v>
       </c>
       <c r="F22" t="n">
-        <v>7.484108550670499e-07</v>
+        <v>2251209216</v>
       </c>
       <c r="G22" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.2734375</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0001461930805817246</v>
+        <v>95.66256713867188</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.1131591796875</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0002487660676706582</v>
+        <v>195.1253967285156</v>
       </c>
       <c r="K22" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.2734375</v>
       </c>
     </row>
     <row r="23">
@@ -1225,34 +1225,34 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7.508166390834958e-07</v>
+        <v>2251109632</v>
       </c>
       <c r="C23" t="n">
-        <v>2.292773757517352e-07</v>
+        <v>30170.115234375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1406392753124237</v>
+        <v>0.2433532923460007</v>
       </c>
       <c r="E23" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2828967571258545</v>
       </c>
       <c r="F23" t="n">
-        <v>7.48410798223631e-07</v>
+        <v>2251204864</v>
       </c>
       <c r="G23" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.154296875</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0001461923966417089</v>
+        <v>95.66110229492188</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.11195373535156</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0002487658930476755</v>
+        <v>195.1242218017578</v>
       </c>
       <c r="K23" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.154296875</v>
       </c>
     </row>
     <row r="24">
@@ -1260,34 +1260,34 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7.508153885282809e-07</v>
+        <v>2251110656</v>
       </c>
       <c r="C24" t="n">
-        <v>2.291273091259427e-07</v>
+        <v>30170.09375</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1406418085098267</v>
+        <v>0.2435860335826874</v>
       </c>
       <c r="E24" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2834721803665161</v>
       </c>
       <c r="F24" t="n">
-        <v>7.484100024157669e-07</v>
+        <v>2251206144</v>
       </c>
       <c r="G24" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.1328125</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0001461919164285064</v>
+        <v>95.66094207763672</v>
       </c>
       <c r="I24" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.11174011230469</v>
       </c>
       <c r="J24" t="n">
-        <v>0.000248764205025509</v>
+        <v>195.1245880126953</v>
       </c>
       <c r="K24" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.1328125</v>
       </c>
     </row>
     <row r="25">
@@ -1295,34 +1295,34 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7.508157295887941e-07</v>
+        <v>2251121664</v>
       </c>
       <c r="C25" t="n">
-        <v>2.291517517960528e-07</v>
+        <v>30169.96875</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1406411826610565</v>
+        <v>0.24352066218853</v>
       </c>
       <c r="E25" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2837663590908051</v>
       </c>
       <c r="F25" t="n">
-        <v>7.484127308998723e-07</v>
+        <v>2251217152</v>
       </c>
       <c r="G25" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.0078125</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0001461939100408927</v>
+        <v>95.65914916992188</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.11008453369141</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002487673482391983</v>
+        <v>195.1234130859375</v>
       </c>
       <c r="K25" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30170.0078125</v>
       </c>
     </row>
     <row r="26">
@@ -1330,34 +1330,34 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7.508171506742656e-07</v>
+        <v>2251102720</v>
       </c>
       <c r="C26" t="n">
-        <v>2.289450975467844e-07</v>
+        <v>30169.826171875</v>
       </c>
       <c r="D26" t="n">
-        <v>0.1406418085098267</v>
+        <v>0.2437780350446701</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.2893625795841217</v>
       </c>
       <c r="F26" t="n">
-        <v>7.484132993340609e-07</v>
+        <v>2251198208</v>
       </c>
       <c r="G26" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.8671875</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0001461928040953353</v>
+        <v>95.65842437744141</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.10875701904297</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0002487658930476755</v>
+        <v>195.12353515625</v>
       </c>
       <c r="K26" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.8671875</v>
       </c>
     </row>
     <row r="27">
@@ -1365,34 +1365,34 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7.508170369874279e-07</v>
+        <v>2251095296</v>
       </c>
       <c r="C27" t="n">
-        <v>2.292666323455705e-07</v>
+        <v>30169.59375</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1406411826610565</v>
+        <v>0.2465423792600632</v>
       </c>
       <c r="E27" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.305865079164505</v>
       </c>
       <c r="F27" t="n">
-        <v>7.48409149764484e-07</v>
+        <v>2251190784</v>
       </c>
       <c r="G27" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.634765625</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0001461921783629805</v>
+        <v>95.65792083740234</v>
       </c>
       <c r="I27" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.10752105712891</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0002487641759216785</v>
+        <v>195.1229400634766</v>
       </c>
       <c r="K27" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.634765625</v>
       </c>
     </row>
     <row r="28">
@@ -1400,34 +1400,34 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7.508147064072546e-07</v>
+        <v>2251120640</v>
       </c>
       <c r="C28" t="n">
-        <v>2.291767344786422e-07</v>
+        <v>30169.23828125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.140639916062355</v>
+        <v>0.2513539493083954</v>
       </c>
       <c r="E28" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3147752285003662</v>
       </c>
       <c r="F28" t="n">
-        <v>7.484118782485893e-07</v>
+        <v>2251215872</v>
       </c>
       <c r="G28" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.279296875</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0001461932988604531</v>
+        <v>95.65706634521484</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.10566711425781</v>
       </c>
       <c r="J28" t="n">
-        <v>0.0002487671736162156</v>
+        <v>195.1219177246094</v>
       </c>
       <c r="K28" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.279296875</v>
       </c>
     </row>
     <row r="29">
@@ -1435,34 +1435,34 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7.508148769375111e-07</v>
+        <v>2251122432</v>
       </c>
       <c r="C29" t="n">
-        <v>2.290842786578651e-07</v>
+        <v>30169.51171875</v>
       </c>
       <c r="D29" t="n">
-        <v>0.140639916062355</v>
+        <v>0.2537018060684204</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3147879242897034</v>
       </c>
       <c r="F29" t="n">
-        <v>7.484136972379929e-07</v>
+        <v>2251217920</v>
       </c>
       <c r="G29" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.552734375</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0001461938954889774</v>
+        <v>95.65636444091797</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.10683441162109</v>
       </c>
       <c r="J29" t="n">
-        <v>0.0002487681049387902</v>
+        <v>195.1217956542969</v>
       </c>
       <c r="K29" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.552734375</v>
       </c>
     </row>
     <row r="30">
@@ -1470,34 +1470,34 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7.508156727453752e-07</v>
+        <v>2251116544</v>
       </c>
       <c r="C30" t="n">
-        <v>2.290033052076978e-07</v>
+        <v>30169.248046875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1406361311674118</v>
+        <v>0.2556861042976379</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3232105672359467</v>
       </c>
       <c r="F30" t="n">
-        <v>7.483991453227645e-07</v>
+        <v>2251212032</v>
       </c>
       <c r="G30" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.287109375</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0001461917127016932</v>
+        <v>95.65526580810547</v>
       </c>
       <c r="I30" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.10536193847656</v>
       </c>
       <c r="J30" t="n">
-        <v>0.0002487630408722907</v>
+        <v>195.1205749511719</v>
       </c>
       <c r="K30" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.287109375</v>
       </c>
     </row>
     <row r="31">
@@ -1505,34 +1505,34 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7.508161843361449e-07</v>
+        <v>2251101696</v>
       </c>
       <c r="C31" t="n">
-        <v>2.291984770863564e-07</v>
+        <v>30169.076171875</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1406405568122864</v>
+        <v>0.2585417330265045</v>
       </c>
       <c r="E31" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3262971341609955</v>
       </c>
       <c r="F31" t="n">
-        <v>7.484126172130345e-07</v>
+        <v>2251197184</v>
       </c>
       <c r="G31" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.115234375</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0001461932843085378</v>
+        <v>95.65399932861328</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.10370635986328</v>
       </c>
       <c r="J31" t="n">
-        <v>0.0002487668243702501</v>
+        <v>195.1184539794922</v>
       </c>
       <c r="K31" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.115234375</v>
       </c>
     </row>
     <row r="32">
@@ -1540,34 +1540,34 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7.508156727453752e-07</v>
+        <v>2251117568</v>
       </c>
       <c r="C32" t="n">
-        <v>2.292004381843071e-07</v>
+        <v>30169.12890625</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1406418085098267</v>
+        <v>0.259773313999176</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3275324106216431</v>
       </c>
       <c r="F32" t="n">
-        <v>7.484127308998723e-07</v>
+        <v>2251213056</v>
       </c>
       <c r="G32" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.169921875</v>
       </c>
       <c r="H32" t="n">
-        <v>0.0001461933279642835</v>
+        <v>95.65351867675781</v>
       </c>
       <c r="I32" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.10359954833984</v>
       </c>
       <c r="J32" t="n">
-        <v>0.0002487669116817415</v>
+        <v>195.119384765625</v>
       </c>
       <c r="K32" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.169921875</v>
       </c>
     </row>
     <row r="33">
@@ -1575,34 +1575,34 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7.508145927204168e-07</v>
+        <v>2251113984</v>
       </c>
       <c r="C33" t="n">
-        <v>2.291328371484269e-07</v>
+        <v>30169.1015625</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1406430751085281</v>
+        <v>0.2604979872703552</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3288786709308624</v>
       </c>
       <c r="F33" t="n">
-        <v>7.48412446682778e-07</v>
+        <v>2251209472</v>
       </c>
       <c r="G33" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.14453125</v>
       </c>
       <c r="H33" t="n">
-        <v>0.0001461934734834358</v>
+        <v>95.65303802490234</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.10302734375</v>
       </c>
       <c r="J33" t="n">
-        <v>0.0002487672900315374</v>
+        <v>195.1200103759766</v>
       </c>
       <c r="K33" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.14453125</v>
       </c>
     </row>
     <row r="34">
@@ -1610,34 +1610,34 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7.508162411795638e-07</v>
+        <v>2251121664</v>
       </c>
       <c r="C34" t="n">
-        <v>2.289518761244835e-07</v>
+        <v>30169.087890625</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1406405568122864</v>
+        <v>0.2609050273895264</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3293819427490234</v>
       </c>
       <c r="F34" t="n">
-        <v>7.484089792342274e-07</v>
+        <v>2251217152</v>
       </c>
       <c r="G34" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.12890625</v>
       </c>
       <c r="H34" t="n">
-        <v>0.0001461920764995739</v>
+        <v>95.6522216796875</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.10253143310547</v>
       </c>
       <c r="J34" t="n">
-        <v>0.0002487646415829659</v>
+        <v>195.1189727783203</v>
       </c>
       <c r="K34" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.12890625</v>
       </c>
     </row>
     <row r="35">
@@ -1645,34 +1645,34 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7.508157295887941e-07</v>
+        <v>2251110912</v>
       </c>
       <c r="C35" t="n">
-        <v>2.293026568622736e-07</v>
+        <v>30168.927734375</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1406430751085281</v>
+        <v>0.2615692615509033</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3304339349269867</v>
       </c>
       <c r="F35" t="n">
-        <v>7.484147772629512e-07</v>
+        <v>2251206400</v>
       </c>
       <c r="G35" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.96875</v>
       </c>
       <c r="H35" t="n">
-        <v>0.0001461943029426038</v>
+        <v>95.65126800537109</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.10092926025391</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0002487681049387902</v>
+        <v>195.1185150146484</v>
       </c>
       <c r="K35" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.96875</v>
       </c>
     </row>
     <row r="36">
@@ -1680,34 +1680,34 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7.508158432756318e-07</v>
+        <v>2251097600</v>
       </c>
       <c r="C36" t="n">
-        <v>2.291569956014428e-07</v>
+        <v>30169.03125</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1406405568122864</v>
+        <v>0.2622340619564056</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3311890959739685</v>
       </c>
       <c r="F36" t="n">
-        <v>7.484119919354271e-07</v>
+        <v>2251193088</v>
       </c>
       <c r="G36" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.072265625</v>
       </c>
       <c r="H36" t="n">
-        <v>0.0001461929350625724</v>
+        <v>95.65070343017578</v>
       </c>
       <c r="I36" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.10105133056641</v>
       </c>
       <c r="J36" t="n">
-        <v>0.00024876554380171</v>
+        <v>195.1187896728516</v>
       </c>
       <c r="K36" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30169.072265625</v>
       </c>
     </row>
     <row r="37">
@@ -1715,34 +1715,34 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7.508168096137524e-07</v>
+        <v>2251111680</v>
       </c>
       <c r="C37" t="n">
-        <v>2.29137825158432e-07</v>
+        <v>30168.810546875</v>
       </c>
       <c r="D37" t="n">
-        <v>0.1406380087137222</v>
+        <v>0.2625370919704437</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3321521580219269</v>
       </c>
       <c r="F37" t="n">
-        <v>7.484150614800456e-07</v>
+        <v>2251206912</v>
       </c>
       <c r="G37" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.849609375</v>
       </c>
       <c r="H37" t="n">
-        <v>0.0001461937645217404</v>
+        <v>95.65031433105469</v>
       </c>
       <c r="I37" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.099365234375</v>
       </c>
       <c r="J37" t="n">
-        <v>0.0002487665333319455</v>
+        <v>195.118408203125</v>
       </c>
       <c r="K37" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.849609375</v>
       </c>
     </row>
     <row r="38">
@@ -1750,34 +1750,34 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7.508156727453752e-07</v>
+        <v>2251117824</v>
       </c>
       <c r="C38" t="n">
-        <v>2.289648080022744e-07</v>
+        <v>30168.892578125</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1406392753124237</v>
+        <v>0.2630474865436554</v>
       </c>
       <c r="E38" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3322553038597107</v>
       </c>
       <c r="F38" t="n">
-        <v>7.484122193091025e-07</v>
+        <v>2251213312</v>
       </c>
       <c r="G38" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.931640625</v>
       </c>
       <c r="H38" t="n">
-        <v>0.0001461931096855551</v>
+        <v>95.64968109130859</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09963989257812</v>
       </c>
       <c r="J38" t="n">
-        <v>0.0002487665042281151</v>
+        <v>195.1188354492188</v>
       </c>
       <c r="K38" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.931640625</v>
       </c>
     </row>
     <row r="39">
@@ -1785,34 +1785,34 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7.508170938308467e-07</v>
+        <v>2251093760</v>
       </c>
       <c r="C39" t="n">
-        <v>2.292097605050003e-07</v>
+        <v>30168.654296875</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1406418085098267</v>
+        <v>0.2629429697990417</v>
       </c>
       <c r="E39" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3327722251415253</v>
       </c>
       <c r="F39" t="n">
-        <v>7.484115371880762e-07</v>
+        <v>2251189248</v>
       </c>
       <c r="G39" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.693359375</v>
       </c>
       <c r="H39" t="n">
-        <v>0.0001461922511225566</v>
+        <v>95.64930725097656</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.097900390625</v>
       </c>
       <c r="J39" t="n">
-        <v>0.0002487652818672359</v>
+        <v>195.1185760498047</v>
       </c>
       <c r="K39" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.693359375</v>
       </c>
     </row>
     <row r="40">
@@ -1820,34 +1820,34 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7.508160706493072e-07</v>
+        <v>2251115008</v>
       </c>
       <c r="C40" t="n">
-        <v>2.292480019150389e-07</v>
+        <v>30168.619140625</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1406418085098267</v>
+        <v>0.2633538842201233</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3334469795227051</v>
       </c>
       <c r="F40" t="n">
-        <v>7.484138109248306e-07</v>
+        <v>2251210496</v>
       </c>
       <c r="G40" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.658203125</v>
       </c>
       <c r="H40" t="n">
-        <v>0.0001461936481064186</v>
+        <v>95.64893341064453</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09725952148438</v>
       </c>
       <c r="J40" t="n">
-        <v>0.0002487675519660115</v>
+        <v>195.1186981201172</v>
       </c>
       <c r="K40" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.658203125</v>
       </c>
     </row>
     <row r="41">
@@ -1855,34 +1855,34 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7.508164685532392e-07</v>
+        <v>2251120128</v>
       </c>
       <c r="C41" t="n">
-        <v>2.290955336547995e-07</v>
+        <v>30168.615234375</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1406418085098267</v>
+        <v>0.2636787295341492</v>
       </c>
       <c r="E41" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3336048424243927</v>
       </c>
       <c r="F41" t="n">
-        <v>7.484108550670499e-07</v>
+        <v>2251215616</v>
       </c>
       <c r="G41" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.654296875</v>
       </c>
       <c r="H41" t="n">
-        <v>0.000146192018291913</v>
+        <v>95.64823150634766</v>
       </c>
       <c r="I41" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09717559814453</v>
       </c>
       <c r="J41" t="n">
-        <v>0.0002487642923370004</v>
+        <v>195.1181793212891</v>
       </c>
       <c r="K41" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.654296875</v>
       </c>
     </row>
     <row r="42">
@@ -1890,34 +1890,34 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7.508164117098204e-07</v>
+        <v>2251111680</v>
       </c>
       <c r="C42" t="n">
-        <v>2.290232430368633e-07</v>
+        <v>30168.59765625</v>
       </c>
       <c r="D42" t="n">
-        <v>0.1406437158584595</v>
+        <v>0.2637956440448761</v>
       </c>
       <c r="E42" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3340930640697479</v>
       </c>
       <c r="F42" t="n">
-        <v>7.4841284458671e-07</v>
+        <v>2251206912</v>
       </c>
       <c r="G42" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.638671875</v>
       </c>
       <c r="H42" t="n">
-        <v>0.0001461932697566226</v>
+        <v>95.64730072021484</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.0966796875</v>
       </c>
       <c r="J42" t="n">
-        <v>0.0002487670572008938</v>
+        <v>195.1174621582031</v>
       </c>
       <c r="K42" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.638671875</v>
       </c>
     </row>
     <row r="43">
@@ -1925,34 +1925,34 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7.508157295887941e-07</v>
+        <v>2251109120</v>
       </c>
       <c r="C43" t="n">
-        <v>2.292506877665801e-07</v>
+        <v>30168.71484375</v>
       </c>
       <c r="D43" t="n">
-        <v>0.1406411826610565</v>
+        <v>0.2639572024345398</v>
       </c>
       <c r="E43" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3346474170684814</v>
       </c>
       <c r="F43" t="n">
-        <v>7.484135267077363e-07</v>
+        <v>2251204352</v>
       </c>
       <c r="G43" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.751953125</v>
       </c>
       <c r="H43" t="n">
-        <v>0.0001461931824451312</v>
+        <v>95.64704895019531</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09716033935547</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0002487664751242846</v>
+        <v>195.1176300048828</v>
       </c>
       <c r="K43" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.751953125</v>
       </c>
     </row>
     <row r="44">
@@ -1960,34 +1960,34 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7.508166390834958e-07</v>
+        <v>2251107328</v>
       </c>
       <c r="C44" t="n">
-        <v>2.291462379844234e-07</v>
+        <v>30168.501953125</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1406405568122864</v>
+        <v>0.2637978196144104</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3349819481372833</v>
       </c>
       <c r="F44" t="n">
-        <v>7.484135835511552e-07</v>
+        <v>2251202816</v>
       </c>
       <c r="G44" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.54296875</v>
       </c>
       <c r="H44" t="n">
-        <v>0.000146193677210249</v>
+        <v>95.64661407470703</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09586334228516</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0002487679303158075</v>
+        <v>195.1173400878906</v>
       </c>
       <c r="K44" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.54296875</v>
       </c>
     </row>
     <row r="45">
@@ -1995,34 +1995,34 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7.508177191084542e-07</v>
+        <v>2251120640</v>
       </c>
       <c r="C45" t="n">
-        <v>2.292062220021762e-07</v>
+        <v>30168.72265625</v>
       </c>
       <c r="D45" t="n">
-        <v>0.140639916062355</v>
+        <v>0.2629922032356262</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3352999985218048</v>
       </c>
       <c r="F45" t="n">
-        <v>7.484111392841442e-07</v>
+        <v>2251215872</v>
       </c>
       <c r="G45" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.76171875</v>
       </c>
       <c r="H45" t="n">
-        <v>0.000146193036925979</v>
+        <v>95.6458740234375</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09683227539062</v>
       </c>
       <c r="J45" t="n">
-        <v>0.0002487657475285232</v>
+        <v>195.1159973144531</v>
       </c>
       <c r="K45" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.76171875</v>
       </c>
     </row>
     <row r="46">
@@ -2030,34 +2030,34 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7.508160138058884e-07</v>
+        <v>2251118592</v>
       </c>
       <c r="C46" t="n">
-        <v>2.289423690626791e-07</v>
+        <v>30168.62109375</v>
       </c>
       <c r="D46" t="n">
-        <v>0.1406386494636536</v>
+        <v>0.2618077397346497</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3353185057640076</v>
       </c>
       <c r="F46" t="n">
-        <v>7.484067623408919e-07</v>
+        <v>2251214080</v>
       </c>
       <c r="G46" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.66015625</v>
       </c>
       <c r="H46" t="n">
-        <v>0.0001461912761442363</v>
+        <v>95.64546203613281</v>
       </c>
       <c r="I46" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09619903564453</v>
       </c>
       <c r="J46" t="n">
-        <v>0.0002487626334186643</v>
+        <v>195.1156616210938</v>
       </c>
       <c r="K46" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.66015625</v>
       </c>
     </row>
     <row r="47">
@@ -2065,34 +2065,34 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7.508166959269147e-07</v>
+        <v>2251108608</v>
       </c>
       <c r="C47" t="n">
-        <v>2.292781999813087e-07</v>
+        <v>30168.6015625</v>
       </c>
       <c r="D47" t="n">
-        <v>0.1406380087137222</v>
+        <v>0.260143369436264</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3355295956134796</v>
       </c>
       <c r="F47" t="n">
-        <v>7.484123329959402e-07</v>
+        <v>2251204096</v>
       </c>
       <c r="G47" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.640625</v>
       </c>
       <c r="H47" t="n">
-        <v>0.0001461932988604531</v>
+        <v>95.64582061767578</v>
       </c>
       <c r="I47" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09590148925781</v>
       </c>
       <c r="J47" t="n">
-        <v>0.0002487665042281151</v>
+        <v>195.1169281005859</v>
       </c>
       <c r="K47" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.640625</v>
       </c>
     </row>
     <row r="48">
@@ -2100,34 +2100,34 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7.508162980229827e-07</v>
+        <v>2251111936</v>
       </c>
       <c r="C48" t="n">
-        <v>2.291808982590737e-07</v>
+        <v>30168.615234375</v>
       </c>
       <c r="D48" t="n">
-        <v>0.140639916062355</v>
+        <v>0.2556436061859131</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3356414437294006</v>
       </c>
       <c r="F48" t="n">
-        <v>7.484139814550872e-07</v>
+        <v>2251207424</v>
       </c>
       <c r="G48" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.654296875</v>
       </c>
       <c r="H48" t="n">
-        <v>0.0001461939536966383</v>
+        <v>95.64423370361328</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09564208984375</v>
       </c>
       <c r="J48" t="n">
-        <v>0.0002487680176272988</v>
+        <v>195.1145172119141</v>
       </c>
       <c r="K48" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.654296875</v>
       </c>
     </row>
     <row r="49">
@@ -2135,34 +2135,34 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7.508155590585375e-07</v>
+        <v>2251118592</v>
       </c>
       <c r="C49" t="n">
-        <v>2.29124850648077e-07</v>
+        <v>30168.578125</v>
       </c>
       <c r="D49" t="n">
-        <v>0.1406424343585968</v>
+        <v>0.2510899603366852</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.335690051317215</v>
       </c>
       <c r="F49" t="n">
-        <v>7.484126172130345e-07</v>
+        <v>2251213824</v>
       </c>
       <c r="G49" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.6171875</v>
       </c>
       <c r="H49" t="n">
-        <v>0.0001461938954889774</v>
+        <v>95.64450836181641</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09517669677734</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0002487685123924166</v>
+        <v>195.1159820556641</v>
       </c>
       <c r="K49" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.6171875</v>
       </c>
     </row>
     <row r="50">
@@ -2170,34 +2170,34 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7.508161274927261e-07</v>
+        <v>2251093760</v>
       </c>
       <c r="C50" t="n">
-        <v>2.29028543685672e-07</v>
+        <v>30168.55078125</v>
       </c>
       <c r="D50" t="n">
-        <v>0.1406380087137222</v>
+        <v>0.2482717484235764</v>
       </c>
       <c r="E50" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3357349634170532</v>
       </c>
       <c r="F50" t="n">
-        <v>7.484112529709819e-07</v>
+        <v>2251189248</v>
       </c>
       <c r="G50" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.58984375</v>
       </c>
       <c r="H50" t="n">
-        <v>0.0001461929059587419</v>
+        <v>95.64453125</v>
       </c>
       <c r="I50" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09473419189453</v>
       </c>
       <c r="J50" t="n">
-        <v>0.0002487654564902186</v>
+        <v>195.1167144775391</v>
       </c>
       <c r="K50" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.58984375</v>
       </c>
     </row>
     <row r="51">
@@ -2205,34 +2205,34 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7.508159569624695e-07</v>
+        <v>2251107584</v>
       </c>
       <c r="C51" t="n">
-        <v>2.292139242854319e-07</v>
+        <v>30168.44140625</v>
       </c>
       <c r="D51" t="n">
-        <v>0.1406411826610565</v>
+        <v>0.2453136295080185</v>
       </c>
       <c r="E51" t="n">
-        <v>0.1420245170593262</v>
+        <v>0.3357515931129456</v>
       </c>
       <c r="F51" t="n">
-        <v>7.484132993340609e-07</v>
+        <v>2251203072</v>
       </c>
       <c r="G51" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.48046875</v>
       </c>
       <c r="H51" t="n">
-        <v>0.0001461937936255708</v>
+        <v>95.64366149902344</v>
       </c>
       <c r="I51" t="n">
-        <v>0.0001456114114262164</v>
+        <v>72.09372711181641</v>
       </c>
       <c r="J51" t="n">
-        <v>0.0002487667661625892</v>
+        <v>195.1154632568359</v>
       </c>
       <c r="K51" t="n">
-        <v>2.266551319962673e-07</v>
+        <v>30168.48046875</v>
       </c>
     </row>
   </sheetData>
